--- a/Dash_xbox subscription.xlsx
+++ b/Dash_xbox subscription.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114488ED-7BF4-42BF-8F60-92854409034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B21F510-E215-498A-9D21-EA1DD8448F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="4" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
-    <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
-    <sheet name="B̳ases" sheetId="2" r:id="rId2"/>
-    <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="5" r:id="rId4"/>
+    <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="C̳álculos" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="Subscription" sheetId="4" r:id="rId5"/>
-    <sheet name="Planilha2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Plan">#N/A</definedName>
@@ -26,14 +25,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
-        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1334,151 +1333,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
@@ -1517,6 +1372,42 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1595,8 +1486,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{ABFD9C52-E221-4A46-87F9-3D6DF7DF2165}">
-      <tableStyleElement type="wholeTable" dxfId="76"/>
-      <tableStyleElement type="headerRow" dxfId="75"/>
+      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2180,10 +2071,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>122</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1064</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5718,7 +5609,7 @@
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>R$ 600,00</a:t>
+            <a:t>R$ 0,00</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -5848,7 +5739,7 @@
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>R$ 400,00</a:t>
+            <a:t>R$ 540,00</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -12229,6 +12120,1125 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A139C9C1-ADC1-4032-9561-E7260810BD97}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="B23:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item x="87"/>
+        <item x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{047E3175-5A46-4E83-AB39-590EC93CA0F9}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G12:I29" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0DA33F8-C71E-4759-B02E-8BF15CA4D714}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="B3:C6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item x="87"/>
+        <item x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E853EAD-FEAF-4BDF-A9B4-25FBE646B251}" name="tbl_easeasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="B10:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item x="87"/>
+        <item x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de EA Play Season Pass" fld="8" baseField="4" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CFEFD33-9364-4AD7-B4CE-B11DCA400610}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="B40:D42" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -12521,8 +13531,8 @@
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12555,7 +13565,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -12577,13 +13587,13 @@
     <dataField name="Contagem de Minecraft Season Pass" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="36">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12592,7 +13602,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12614,7 +13624,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{557260CB-7172-445E-A6DC-51C0E4B0B9FA}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="B32:D35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -13292,1136 +14302,17 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="2" item="2" hier="-1"/>
+    <pageField fld="2" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Soma de EA Play Season Pass" fld="8" baseField="4" baseItem="0"/>
     <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="40">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A139C9C1-ADC1-4032-9561-E7260810BD97}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="B23:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item x="87"/>
-        <item x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="42">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{047E3175-5A46-4E83-AB39-590EC93CA0F9}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G12:I29" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="2">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0DA33F8-C71E-4759-B02E-8BF15CA4D714}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="B3:C6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item x="87"/>
-        <item x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="46">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E853EAD-FEAF-4BDF-A9B4-25FBE646B251}" name="tbl_easeasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="B10:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item x="87"/>
-        <item x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de EA Play Season Pass" fld="8" baseField="4" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="44">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="45">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14471,8 +14362,8 @@
     <tabular pivotCacheId="1006374425">
       <items count="3">
         <i x="1"/>
-        <i x="2"/>
-        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0"/>
       </items>
     </tabular>
   </data>
@@ -14487,22 +14378,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="38">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="68" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="67"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="65" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="63" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="62" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="61" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="32" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="29" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="27" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="25" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14512,7 +14403,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E3E4B72-5EE0-43DD-899F-4E9FDF400BB3}" name="Tabela2" displayName="Tabela2" ref="A1:B4" totalsRowShown="0">
   <autoFilter ref="A1:B4" xr:uid="{4E3E4B72-5EE0-43DD-899F-4E9FDF400BB3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63342824-1E6C-4CFA-B114-E70B5DE371AD}" name="Plan" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{63342824-1E6C-4CFA-B114-E70B5DE371AD}" name="Plan" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{E098577B-5C64-4FB2-BD7B-CB8982D4A1EF}" name="Renovação"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15015,7 +14906,7 @@
   <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27188,7 +27079,7 @@
   <dimension ref="B1:I578"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27228,12 +27119,12 @@
         <v>23</v>
       </c>
       <c r="C4" s="14">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="E4" s="14">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$B$10)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -27241,7 +27132,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="14">
-        <v>1064</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -27249,7 +27140,7 @@
         <v>314</v>
       </c>
       <c r="C6" s="14">
-        <v>1186</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -27270,10 +27161,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C11" s="14">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -27281,7 +27172,7 @@
         <v>314</v>
       </c>
       <c r="C12" s="14">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
@@ -27366,7 +27257,7 @@
       </c>
       <c r="E23" s="26">
         <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$23)</f>
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
@@ -27374,10 +27265,10 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C24" s="14">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
@@ -27388,7 +27279,7 @@
         <v>314</v>
       </c>
       <c r="C25" s="14">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
@@ -27423,7 +27314,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -27442,10 +27333,10 @@
         <v>23</v>
       </c>
       <c r="C33" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D33" s="14">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -27453,10 +27344,10 @@
         <v>19</v>
       </c>
       <c r="C34" s="14">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="D34" s="14">
-        <v>360</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -27464,10 +27355,10 @@
         <v>314</v>
       </c>
       <c r="C35" s="14">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D35" s="14">
-        <v>400</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -27492,13 +27383,13 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C41" s="25">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D41" s="25">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -27506,10 +27397,10 @@
         <v>314</v>
       </c>
       <c r="C42" s="25">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D42" s="25">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -29131,7 +29022,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35394,18 +35285,6 @@
       </x14:slicerList>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45E4B8C-3310-4874-B892-BEB396E3B006}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
